--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Navn</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Full dressed Use Case, Test Cases og mockup</t>
+  </si>
+  <si>
+    <t>2,30 mins</t>
+  </si>
+  <si>
+    <t>System Sekvens Designer</t>
+  </si>
+  <si>
+    <t>System Sekvens Diagram</t>
   </si>
 </sst>
 </file>
@@ -382,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -399,7 +408,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
@@ -451,6 +460,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Navn</t>
   </si>
@@ -57,10 +57,19 @@
     <t>2,30 mins</t>
   </si>
   <si>
-    <t>System Sekvens Designer</t>
-  </si>
-  <si>
     <t>System Sekvens Diagram</t>
+  </si>
+  <si>
+    <t>1 hrs ?</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af OC-2 beregnTværkraft</t>
+  </si>
+  <si>
+    <t>2 hrs ?</t>
+  </si>
+  <si>
+    <t>Undervisning i OC.</t>
   </si>
 </sst>
 </file>
@@ -391,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,10 +477,38 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Navn</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Full dressed Use Case, Test Cases og mockup</t>
   </si>
   <si>
-    <t>2,30 mins</t>
-  </si>
-  <si>
     <t>System Sekvens Diagram</t>
   </si>
   <si>
@@ -70,6 +67,21 @@
   </si>
   <si>
     <t>Undervisning i OC.</t>
+  </si>
+  <si>
+    <t>Activitets Diagram og Domænemodel for UC-5</t>
+  </si>
+  <si>
+    <t>4,30 hrs?</t>
+  </si>
+  <si>
+    <t>2,30 hrs?</t>
+  </si>
+  <si>
+    <t>Test analyst</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af test til OC-2</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +486,13 @@
         <v>42059</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,13 +500,13 @@
         <v>42060</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,13 +514,41 @@
         <v>42060</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Navn</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Udarbejdelse af test til OC-2</t>
+  </si>
+  <si>
+    <t>3,30 hrs?</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af Klassediagram for UC4</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +560,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>42067</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Navn</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Udarbejdelse af test til OC-2</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af AD + Dataordbog for UC 6</t>
+  </si>
+  <si>
+    <t>5 hrs?</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +557,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>42069</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Navn</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Udarbejdelse af Klassediagram for UC4</t>
+  </si>
+  <si>
+    <t>SSD for UC6</t>
+  </si>
+  <si>
+    <t>GUI Builder</t>
+  </si>
+  <si>
+    <t>Arbejde på Frame, i view laget</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +583,59 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>42067</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>42072</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>42074</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>42075</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
